--- a/ig/ch-ips/StructureDefinition-ch-ips-composition.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13675" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13675" uniqueCount="911">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:08:56+00:00</t>
+    <t>2025-05-22T08:10:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1011,7 +1011,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
 </t>
   </si>
   <si>
@@ -1252,7 +1252,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1322,7 +1322,7 @@
     <t>Composition.attester:legalAuthenticator.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
 </t>
   </si>
   <si>
@@ -1815,10 +1815,6 @@
   </si>
   <si>
     <t>Composition.section:originalRepresentation.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
-</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.focus</t>
@@ -3231,15 +3227,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="76.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="37.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="32.140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3250,27 +3246,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16530,7 +16526,7 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>582</v>
+        <v>321</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>522</v>
@@ -16621,7 +16617,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>524</v>
@@ -16738,7 +16734,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>529</v>
@@ -16767,7 +16763,7 @@
         <v>122</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>531</v>
@@ -16855,7 +16851,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>535</v>
@@ -16974,7 +16970,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>543</v>
@@ -17093,7 +17089,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>551</v>
@@ -17119,10 +17115,10 @@
         <v>80</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>553</v>
@@ -17210,7 +17206,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>558</v>
@@ -17329,7 +17325,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>566</v>
@@ -17446,13 +17442,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>80</v>
@@ -17563,7 +17559,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>505</v>
@@ -17678,7 +17674,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>506</v>
@@ -17795,7 +17791,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>507</v>
@@ -17914,7 +17910,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>508</v>
@@ -18033,7 +18029,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>514</v>
@@ -18081,7 +18077,7 @@
         <v>80</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>80</v>
@@ -18152,7 +18148,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>521</v>
@@ -18269,7 +18265,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>524</v>
@@ -18386,7 +18382,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>529</v>
@@ -18503,7 +18499,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>535</v>
@@ -18622,7 +18618,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>543</v>
@@ -18741,7 +18737,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>551</v>
@@ -18814,7 +18810,7 @@
         <v>80</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC133" s="2"/>
       <c r="AD133" t="s" s="2">
@@ -18856,13 +18852,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>80</v>
@@ -18884,7 +18880,7 @@
         <v>80</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L134" t="s" s="2">
         <v>552</v>
@@ -18975,13 +18971,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>80</v>
@@ -19003,7 +18999,7 @@
         <v>80</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L135" t="s" s="2">
         <v>552</v>
@@ -19094,7 +19090,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>558</v>
@@ -19213,7 +19209,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>566</v>
@@ -19330,13 +19326,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>80</v>
@@ -19447,7 +19443,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>505</v>
@@ -19562,7 +19558,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>506</v>
@@ -19679,7 +19675,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>507</v>
@@ -19798,7 +19794,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>508</v>
@@ -19917,7 +19913,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>514</v>
@@ -19965,7 +19961,7 @@
         <v>80</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>80</v>
@@ -20036,7 +20032,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>521</v>
@@ -20153,7 +20149,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>524</v>
@@ -20270,7 +20266,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>529</v>
@@ -20387,7 +20383,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>535</v>
@@ -20506,7 +20502,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>543</v>
@@ -20625,7 +20621,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>551</v>
@@ -20698,7 +20694,7 @@
         <v>80</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC149" s="2"/>
       <c r="AD149" t="s" s="2">
@@ -20740,13 +20736,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>80</v>
@@ -20768,7 +20764,7 @@
         <v>80</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L150" t="s" s="2">
         <v>552</v>
@@ -20859,7 +20855,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>558</v>
@@ -20978,7 +20974,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>566</v>
@@ -21095,13 +21091,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>80</v>
@@ -21212,7 +21208,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>505</v>
@@ -21327,7 +21323,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>506</v>
@@ -21444,7 +21440,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>507</v>
@@ -21563,7 +21559,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>508</v>
@@ -21682,7 +21678,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>514</v>
@@ -21730,7 +21726,7 @@
         <v>80</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>80</v>
@@ -21801,7 +21797,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>521</v>
@@ -21918,7 +21914,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>524</v>
@@ -22035,7 +22031,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>529</v>
@@ -22152,7 +22148,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>535</v>
@@ -22271,7 +22267,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>543</v>
@@ -22390,7 +22386,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>551</v>
@@ -22463,7 +22459,7 @@
         <v>80</v>
       </c>
       <c r="AB164" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC164" s="2"/>
       <c r="AD164" t="s" s="2">
@@ -22505,13 +22501,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>80</v>
@@ -22533,7 +22529,7 @@
         <v>80</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L165" t="s" s="2">
         <v>552</v>
@@ -22624,7 +22620,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>558</v>
@@ -22743,7 +22739,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>566</v>
@@ -22860,13 +22856,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>80</v>
@@ -22977,7 +22973,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>505</v>
@@ -23092,7 +23088,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>506</v>
@@ -23209,7 +23205,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>507</v>
@@ -23328,7 +23324,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>508</v>
@@ -23447,7 +23443,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>514</v>
@@ -23495,7 +23491,7 @@
         <v>80</v>
       </c>
       <c r="S173" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="T173" t="s" s="2">
         <v>80</v>
@@ -23566,7 +23562,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>521</v>
@@ -23683,7 +23679,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>524</v>
@@ -23800,7 +23796,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>529</v>
@@ -23917,7 +23913,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>535</v>
@@ -24036,7 +24032,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>543</v>
@@ -24155,7 +24151,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>551</v>
@@ -24228,7 +24224,7 @@
         <v>80</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC179" s="2"/>
       <c r="AD179" t="s" s="2">
@@ -24270,13 +24266,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>80</v>
@@ -24298,7 +24294,7 @@
         <v>80</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L180" t="s" s="2">
         <v>552</v>
@@ -24389,7 +24385,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>558</v>
@@ -24508,7 +24504,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>566</v>
@@ -24625,13 +24621,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>80</v>
@@ -24742,7 +24738,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>505</v>
@@ -24857,7 +24853,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>506</v>
@@ -24974,7 +24970,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>507</v>
@@ -25093,7 +25089,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>508</v>
@@ -25212,7 +25208,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>514</v>
@@ -25260,7 +25256,7 @@
         <v>80</v>
       </c>
       <c r="S188" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T188" t="s" s="2">
         <v>80</v>
@@ -25331,7 +25327,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>521</v>
@@ -25448,7 +25444,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>524</v>
@@ -25565,7 +25561,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>529</v>
@@ -25682,7 +25678,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>535</v>
@@ -25801,7 +25797,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>543</v>
@@ -25920,7 +25916,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>551</v>
@@ -25993,7 +25989,7 @@
         <v>80</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC194" s="2"/>
       <c r="AD194" t="s" s="2">
@@ -26035,13 +26031,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D195" t="s" s="2">
         <v>80</v>
@@ -26063,7 +26059,7 @@
         <v>80</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L195" t="s" s="2">
         <v>552</v>
@@ -26154,7 +26150,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>558</v>
@@ -26273,7 +26269,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>566</v>
@@ -26390,13 +26386,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>80</v>
@@ -26507,7 +26503,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>505</v>
@@ -26622,7 +26618,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>506</v>
@@ -26739,7 +26735,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>507</v>
@@ -26858,7 +26854,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>508</v>
@@ -26977,7 +26973,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>514</v>
@@ -27025,7 +27021,7 @@
         <v>80</v>
       </c>
       <c r="S203" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T203" t="s" s="2">
         <v>80</v>
@@ -27096,7 +27092,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>521</v>
@@ -27213,7 +27209,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>524</v>
@@ -27330,7 +27326,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>529</v>
@@ -27447,7 +27443,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>535</v>
@@ -27566,7 +27562,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>543</v>
@@ -27685,7 +27681,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>551</v>
@@ -27758,7 +27754,7 @@
         <v>80</v>
       </c>
       <c r="AB209" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC209" s="2"/>
       <c r="AD209" t="s" s="2">
@@ -27800,13 +27796,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>80</v>
@@ -27828,7 +27824,7 @@
         <v>80</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L210" t="s" s="2">
         <v>552</v>
@@ -27919,7 +27915,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>558</v>
@@ -28038,7 +28034,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>566</v>
@@ -28155,13 +28151,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>80</v>
@@ -28272,7 +28268,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>505</v>
@@ -28387,7 +28383,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>506</v>
@@ -28504,7 +28500,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>507</v>
@@ -28623,7 +28619,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>508</v>
@@ -28742,7 +28738,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>514</v>
@@ -28790,7 +28786,7 @@
         <v>80</v>
       </c>
       <c r="S218" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>80</v>
@@ -28861,7 +28857,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>521</v>
@@ -28978,7 +28974,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>524</v>
@@ -29095,7 +29091,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>529</v>
@@ -29212,7 +29208,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>535</v>
@@ -29331,7 +29327,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>543</v>
@@ -29450,7 +29446,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>551</v>
@@ -29523,7 +29519,7 @@
         <v>80</v>
       </c>
       <c r="AB224" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AC224" s="2"/>
       <c r="AD224" t="s" s="2">
@@ -29565,13 +29561,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>80</v>
@@ -29593,7 +29589,7 @@
         <v>80</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L225" t="s" s="2">
         <v>552</v>
@@ -29684,13 +29680,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>80</v>
@@ -29712,7 +29708,7 @@
         <v>80</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L226" t="s" s="2">
         <v>552</v>
@@ -29803,13 +29799,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D227" t="s" s="2">
         <v>80</v>
@@ -29831,7 +29827,7 @@
         <v>80</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L227" t="s" s="2">
         <v>552</v>
@@ -29922,7 +29918,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>558</v>
@@ -30041,7 +30037,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>566</v>
@@ -30158,13 +30154,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>80</v>
@@ -30275,7 +30271,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>505</v>
@@ -30390,7 +30386,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>506</v>
@@ -30507,7 +30503,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>507</v>
@@ -30626,7 +30622,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>508</v>
@@ -30745,7 +30741,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>514</v>
@@ -30793,7 +30789,7 @@
         <v>80</v>
       </c>
       <c r="S235" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T235" t="s" s="2">
         <v>80</v>
@@ -30864,7 +30860,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>521</v>
@@ -30981,7 +30977,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>524</v>
@@ -31098,7 +31094,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>529</v>
@@ -31215,7 +31211,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>535</v>
@@ -31334,7 +31330,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>543</v>
@@ -31453,7 +31449,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>551</v>
@@ -31526,7 +31522,7 @@
         <v>80</v>
       </c>
       <c r="AB241" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC241" s="2"/>
       <c r="AD241" t="s" s="2">
@@ -31568,13 +31564,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>80</v>
@@ -31596,7 +31592,7 @@
         <v>80</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L242" t="s" s="2">
         <v>552</v>
@@ -31687,7 +31683,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>558</v>
@@ -31806,7 +31802,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>566</v>
@@ -31923,13 +31919,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D245" t="s" s="2">
         <v>80</v>
@@ -32040,7 +32036,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>505</v>
@@ -32155,7 +32151,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>506</v>
@@ -32272,7 +32268,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>507</v>
@@ -32391,7 +32387,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>508</v>
@@ -32510,7 +32506,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>514</v>
@@ -32558,7 +32554,7 @@
         <v>80</v>
       </c>
       <c r="S250" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="T250" t="s" s="2">
         <v>80</v>
@@ -32629,7 +32625,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>521</v>
@@ -32746,7 +32742,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>524</v>
@@ -32863,7 +32859,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>529</v>
@@ -32980,7 +32976,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>535</v>
@@ -33099,7 +33095,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>543</v>
@@ -33218,7 +33214,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>551</v>
@@ -33291,7 +33287,7 @@
         <v>80</v>
       </c>
       <c r="AB256" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC256" s="2"/>
       <c r="AD256" t="s" s="2">
@@ -33333,13 +33329,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>80</v>
@@ -33361,7 +33357,7 @@
         <v>80</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L257" t="s" s="2">
         <v>552</v>
@@ -33452,7 +33448,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>558</v>
@@ -33571,7 +33567,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>566</v>
@@ -33688,13 +33684,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D260" t="s" s="2">
         <v>80</v>
@@ -33805,7 +33801,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>505</v>
@@ -33920,7 +33916,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>506</v>
@@ -34037,7 +34033,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>507</v>
@@ -34156,7 +34152,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>508</v>
@@ -34275,7 +34271,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>514</v>
@@ -34323,7 +34319,7 @@
         <v>80</v>
       </c>
       <c r="S265" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="T265" t="s" s="2">
         <v>80</v>
@@ -34394,7 +34390,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>521</v>
@@ -34511,7 +34507,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>524</v>
@@ -34628,7 +34624,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>529</v>
@@ -34745,7 +34741,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>535</v>
@@ -34864,7 +34860,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>543</v>
@@ -34983,7 +34979,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>551</v>
@@ -35056,7 +35052,7 @@
         <v>80</v>
       </c>
       <c r="AB271" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC271" s="2"/>
       <c r="AD271" t="s" s="2">
@@ -35098,13 +35094,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D272" t="s" s="2">
         <v>80</v>
@@ -35126,7 +35122,7 @@
         <v>80</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L272" t="s" s="2">
         <v>552</v>
@@ -35217,13 +35213,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>80</v>
@@ -35245,7 +35241,7 @@
         <v>80</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L273" t="s" s="2">
         <v>552</v>
@@ -35336,7 +35332,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>558</v>
@@ -35455,7 +35451,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>566</v>
@@ -35572,13 +35568,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D276" t="s" s="2">
         <v>80</v>
@@ -35689,7 +35685,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>505</v>
@@ -35804,7 +35800,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>506</v>
@@ -35921,7 +35917,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>507</v>
@@ -36040,7 +36036,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>508</v>
@@ -36159,7 +36155,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>514</v>
@@ -36207,7 +36203,7 @@
         <v>80</v>
       </c>
       <c r="S281" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="T281" t="s" s="2">
         <v>80</v>
@@ -36278,7 +36274,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>521</v>
@@ -36395,7 +36391,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>524</v>
@@ -36512,7 +36508,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>529</v>
@@ -36629,7 +36625,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>535</v>
@@ -36748,7 +36744,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>543</v>
@@ -36867,7 +36863,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>551</v>
@@ -36940,7 +36936,7 @@
         <v>80</v>
       </c>
       <c r="AB287" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC287" s="2"/>
       <c r="AD287" t="s" s="2">
@@ -36982,13 +36978,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D288" t="s" s="2">
         <v>80</v>
@@ -37010,7 +37006,7 @@
         <v>80</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L288" t="s" s="2">
         <v>552</v>
@@ -37101,7 +37097,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>558</v>
@@ -37220,7 +37216,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>566</v>
@@ -37337,13 +37333,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D291" t="s" s="2">
         <v>80</v>
@@ -37454,7 +37450,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>505</v>
@@ -37569,7 +37565,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>506</v>
@@ -37686,7 +37682,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>507</v>
@@ -37805,7 +37801,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>508</v>
@@ -37924,7 +37920,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>514</v>
@@ -37972,7 +37968,7 @@
         <v>80</v>
       </c>
       <c r="S296" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T296" t="s" s="2">
         <v>80</v>
@@ -38043,7 +38039,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>521</v>
@@ -38160,7 +38156,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>524</v>
@@ -38277,7 +38273,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>529</v>
@@ -38394,7 +38390,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>535</v>
@@ -38513,7 +38509,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>543</v>
@@ -38632,7 +38628,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>551</v>
@@ -38705,7 +38701,7 @@
         <v>80</v>
       </c>
       <c r="AB302" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC302" s="2"/>
       <c r="AD302" t="s" s="2">
@@ -38747,13 +38743,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D303" t="s" s="2">
         <v>80</v>
@@ -38775,7 +38771,7 @@
         <v>80</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L303" t="s" s="2">
         <v>552</v>
@@ -38866,13 +38862,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D304" t="s" s="2">
         <v>80</v>
@@ -38894,7 +38890,7 @@
         <v>80</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L304" t="s" s="2">
         <v>552</v>
@@ -38985,7 +38981,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>558</v>
@@ -39104,7 +39100,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>566</v>
@@ -39221,13 +39217,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D307" t="s" s="2">
         <v>80</v>
@@ -39338,7 +39334,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>505</v>
@@ -39453,7 +39449,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>506</v>
@@ -39570,7 +39566,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>507</v>
@@ -39689,7 +39685,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>508</v>
@@ -39808,7 +39804,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>514</v>
@@ -39856,7 +39852,7 @@
         <v>80</v>
       </c>
       <c r="S312" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="T312" t="s" s="2">
         <v>80</v>
@@ -39927,7 +39923,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>521</v>
@@ -40044,7 +40040,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>524</v>
@@ -40161,7 +40157,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>529</v>
@@ -40278,7 +40274,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>535</v>
@@ -40397,7 +40393,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>543</v>
@@ -40516,7 +40512,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>551</v>
@@ -40589,7 +40585,7 @@
         <v>80</v>
       </c>
       <c r="AB318" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC318" s="2"/>
       <c r="AD318" t="s" s="2">
@@ -40631,13 +40627,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D319" t="s" s="2">
         <v>80</v>
@@ -40659,7 +40655,7 @@
         <v>80</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L319" t="s" s="2">
         <v>552</v>
@@ -40750,13 +40746,13 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D320" t="s" s="2">
         <v>80</v>
@@ -40778,7 +40774,7 @@
         <v>80</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L320" t="s" s="2">
         <v>552</v>
@@ -40869,7 +40865,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>558</v>
@@ -40988,7 +40984,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>566</v>
@@ -41105,13 +41101,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D323" t="s" s="2">
         <v>80</v>
@@ -41222,7 +41218,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>505</v>
@@ -41337,7 +41333,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>506</v>
@@ -41454,7 +41450,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>507</v>
@@ -41573,7 +41569,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>508</v>
@@ -41692,7 +41688,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>514</v>
@@ -41740,7 +41736,7 @@
         <v>80</v>
       </c>
       <c r="S328" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T328" t="s" s="2">
         <v>80</v>
@@ -41811,7 +41807,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>521</v>
@@ -41928,7 +41924,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>524</v>
@@ -42045,7 +42041,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>529</v>
@@ -42162,7 +42158,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>535</v>
@@ -42281,7 +42277,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>543</v>
@@ -42400,7 +42396,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>551</v>
@@ -42473,7 +42469,7 @@
         <v>80</v>
       </c>
       <c r="AB334" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC334" s="2"/>
       <c r="AD334" t="s" s="2">
@@ -42515,13 +42511,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D335" t="s" s="2">
         <v>80</v>
@@ -42543,7 +42539,7 @@
         <v>80</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L335" t="s" s="2">
         <v>552</v>
@@ -42634,7 +42630,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>558</v>
@@ -42753,7 +42749,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>566</v>
@@ -42870,13 +42866,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D338" t="s" s="2">
         <v>80</v>
@@ -42987,7 +42983,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>505</v>
@@ -43102,7 +43098,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>506</v>
@@ -43219,7 +43215,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>507</v>
@@ -43338,7 +43334,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>508</v>
@@ -43457,7 +43453,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>514</v>
@@ -43505,7 +43501,7 @@
         <v>80</v>
       </c>
       <c r="S343" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="T343" t="s" s="2">
         <v>80</v>
@@ -43576,7 +43572,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>521</v>
@@ -43693,7 +43689,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>524</v>
@@ -43810,7 +43806,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>529</v>
@@ -43927,7 +43923,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>535</v>
@@ -44046,7 +44042,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>543</v>
@@ -44165,7 +44161,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>551</v>
@@ -44238,7 +44234,7 @@
         <v>80</v>
       </c>
       <c r="AB349" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AC349" s="2"/>
       <c r="AD349" t="s" s="2">
@@ -44280,13 +44276,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>551</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D350" t="s" s="2">
         <v>80</v>
@@ -44308,7 +44304,7 @@
         <v>80</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L350" t="s" s="2">
         <v>552</v>
@@ -44399,7 +44395,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>558</v>
@@ -44518,7 +44514,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>566</v>
@@ -44635,13 +44631,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>497</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D353" t="s" s="2">
         <v>80</v>
@@ -44752,7 +44748,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>505</v>
@@ -44867,7 +44863,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>506</v>
@@ -44984,7 +44980,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>507</v>
@@ -45103,7 +45099,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>508</v>
@@ -45222,7 +45218,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>514</v>
@@ -45270,7 +45266,7 @@
         <v>80</v>
       </c>
       <c r="S358" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="T358" t="s" s="2">
         <v>80</v>
@@ -45341,7 +45337,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>521</v>
@@ -45458,7 +45454,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>524</v>
@@ -45575,7 +45571,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>529</v>
@@ -45692,7 +45688,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>535</v>
@@ -45811,7 +45807,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>543</v>
@@ -45930,7 +45926,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>551</v>
@@ -46047,7 +46043,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>558</v>
@@ -46166,7 +46162,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>566</v>
